--- a/repair_item1.xlsx
+++ b/repair_item1.xlsx
@@ -5,22 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\Colab Notebooks\repair_app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SALES\work\git_space\repair_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDB3AC5-4471-4EC7-B827-E8070690EF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE83A83-136C-49D1-86C8-0A00F906138A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="113">
   <si>
     <t>シリーズ</t>
   </si>
@@ -71,9 +84,6 @@
   </si>
   <si>
     <t>#2007-O/A</t>
-  </si>
-  <si>
-    <t>5・7</t>
   </si>
   <si>
     <t>#6020_01</t>
@@ -736,10 +746,13 @@
   <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -836,7 +849,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -844,49 +857,49 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
         <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -897,234 +910,234 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
         <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
         <v>36</v>
       </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
       <c r="C16" t="s">
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
         <v>38</v>
       </c>
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
       <c r="C17" t="s">
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
         <v>40</v>
       </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
       <c r="C18" t="s">
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
         <v>42</v>
       </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
         <v>45</v>
       </c>
-      <c r="B21" t="s">
-        <v>46</v>
-      </c>
       <c r="C21" t="s">
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
         <v>47</v>
       </c>
-      <c r="B22" t="s">
-        <v>48</v>
-      </c>
       <c r="C22" t="s">
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
         <v>49</v>
       </c>
-      <c r="B23" t="s">
-        <v>50</v>
-      </c>
       <c r="C23" t="s">
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
         <v>51</v>
       </c>
-      <c r="B24" t="s">
-        <v>52</v>
-      </c>
       <c r="C24" t="s">
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
         <v>54</v>
       </c>
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
       <c r="C26" t="s">
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -1135,10 +1148,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
@@ -1149,24 +1162,24 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
         <v>59</v>
       </c>
-      <c r="B30" t="s">
-        <v>60</v>
-      </c>
       <c r="C30" t="s">
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
         <v>61</v>
-      </c>
-      <c r="B31" t="s">
-        <v>62</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -1177,38 +1190,38 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
         <v>63</v>
       </c>
-      <c r="B32" t="s">
-        <v>64</v>
-      </c>
       <c r="C32" t="s">
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
         <v>65</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
         <v>66</v>
-      </c>
-      <c r="C33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
         <v>68</v>
-      </c>
-      <c r="B34" t="s">
-        <v>69</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -1219,10 +1232,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
@@ -1233,38 +1246,38 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
         <v>71</v>
       </c>
-      <c r="B36" t="s">
-        <v>72</v>
-      </c>
       <c r="C36" t="s">
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
         <v>73</v>
       </c>
-      <c r="B37" t="s">
-        <v>74</v>
-      </c>
       <c r="C37" t="s">
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
         <v>75</v>
-      </c>
-      <c r="B38" t="s">
-        <v>76</v>
       </c>
       <c r="C38" t="s">
         <v>6</v>
@@ -1275,24 +1288,24 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
         <v>77</v>
       </c>
-      <c r="B39" t="s">
-        <v>78</v>
-      </c>
       <c r="C39" t="s">
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
         <v>79</v>
-      </c>
-      <c r="B40" t="s">
-        <v>80</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
@@ -1303,10 +1316,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
@@ -1317,16 +1330,16 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
         <v>82</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
         <v>83</v>
-      </c>
-      <c r="C42" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1334,7 +1347,7 @@
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
@@ -1348,7 +1361,7 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
@@ -1362,133 +1375,133 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" t="s">
         <v>87</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>88</v>
-      </c>
-      <c r="D45" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" t="s">
         <v>90</v>
       </c>
-      <c r="B46" t="s">
-        <v>91</v>
-      </c>
       <c r="C46" t="s">
         <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" t="s">
         <v>92</v>
       </c>
-      <c r="B47" t="s">
-        <v>93</v>
-      </c>
       <c r="C47" t="s">
         <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" t="s">
         <v>94</v>
       </c>
-      <c r="B48" t="s">
-        <v>95</v>
-      </c>
       <c r="C48" t="s">
         <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C49" t="s">
         <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C51" t="s">
         <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" t="s">
         <v>99</v>
       </c>
-      <c r="B52" t="s">
-        <v>100</v>
-      </c>
       <c r="C52" t="s">
         <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" t="s">
         <v>101</v>
       </c>
-      <c r="B53" t="s">
-        <v>102</v>
-      </c>
       <c r="C53" t="s">
         <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" t="s">
         <v>103</v>
-      </c>
-      <c r="B54" t="s">
-        <v>104</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
@@ -1499,38 +1512,38 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" t="s">
         <v>105</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" t="s">
         <v>106</v>
-      </c>
-      <c r="C55" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" t="s">
         <v>108</v>
       </c>
-      <c r="C56" t="s">
-        <v>109</v>
-      </c>
       <c r="D56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" t="s">
         <v>110</v>
-      </c>
-      <c r="B57" t="s">
-        <v>111</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
@@ -1541,24 +1554,24 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C58" t="s">
         <v>12</v>
       </c>
       <c r="D58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C59" t="s">
         <v>6</v>

--- a/repair_item1.xlsx
+++ b/repair_item1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SALES\work\git_space\repair_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE83A83-136C-49D1-86C8-0A00F906138A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7003FA6E-8AFB-4A3B-8C71-E7D95A648423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="116">
   <si>
     <t>シリーズ</t>
   </si>
@@ -74,304 +74,318 @@
     <t>背+座</t>
   </si>
   <si>
+    <t>#2005-A</t>
+  </si>
+  <si>
+    <t>#2007-O/A</t>
+  </si>
+  <si>
+    <t>#6020_01</t>
+  </si>
+  <si>
+    <t>総張り替え</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>黒部</t>
+  </si>
+  <si>
+    <t>#701</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>メルー</t>
+  </si>
+  <si>
+    <t>#702</t>
+  </si>
+  <si>
+    <t>鹿島</t>
+  </si>
+  <si>
+    <t>#703</t>
+  </si>
+  <si>
+    <t>#705</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>笠</t>
+  </si>
+  <si>
+    <t>#708/A</t>
+  </si>
+  <si>
+    <t>アイガー</t>
+  </si>
+  <si>
+    <t>#713</t>
+  </si>
+  <si>
+    <t>マナスル</t>
+  </si>
+  <si>
+    <t>#716</t>
+  </si>
+  <si>
+    <t>バルカン</t>
+  </si>
+  <si>
+    <t>#717</t>
+  </si>
+  <si>
+    <t>モンブラン</t>
+  </si>
+  <si>
+    <t>#725</t>
+  </si>
+  <si>
+    <t>のりくら</t>
+  </si>
+  <si>
+    <t>#727</t>
+  </si>
+  <si>
+    <t>ピレネー</t>
+  </si>
+  <si>
+    <t>#737</t>
+  </si>
+  <si>
+    <t>#741</t>
+  </si>
+  <si>
+    <t>セバン</t>
+  </si>
+  <si>
+    <t>#745/A</t>
+  </si>
+  <si>
+    <t>エルベ</t>
+  </si>
+  <si>
+    <t>#746</t>
+  </si>
+  <si>
+    <t>モーゼル</t>
+  </si>
+  <si>
+    <t>#747/A</t>
+  </si>
+  <si>
+    <t>レナ</t>
+  </si>
+  <si>
+    <t>#748/A</t>
+  </si>
+  <si>
+    <t>#749/A</t>
+  </si>
+  <si>
+    <t>シャスタ</t>
+  </si>
+  <si>
+    <t>#750A</t>
+  </si>
+  <si>
+    <t>#751</t>
+  </si>
+  <si>
+    <t>#753/A</t>
+  </si>
+  <si>
+    <t>#754/A</t>
+  </si>
+  <si>
+    <t>ロアール</t>
+  </si>
+  <si>
+    <t>#755/A</t>
+  </si>
+  <si>
+    <t>セーヌ</t>
+  </si>
+  <si>
+    <t>#756/A</t>
+  </si>
+  <si>
+    <t>ライン</t>
+  </si>
+  <si>
+    <t>#757/A</t>
+  </si>
+  <si>
+    <t>オークハウステムズ</t>
+  </si>
+  <si>
+    <t>#758A</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>アンデス</t>
+  </si>
+  <si>
+    <t>#760</t>
+  </si>
+  <si>
+    <t>#761</t>
+  </si>
+  <si>
+    <t>セーヌII</t>
+  </si>
+  <si>
+    <t>#762/A</t>
+  </si>
+  <si>
+    <t>ローガン</t>
+  </si>
+  <si>
+    <t>C60</t>
+  </si>
+  <si>
+    <t>ケープコット</t>
+  </si>
+  <si>
+    <t>CA204/A</t>
+  </si>
+  <si>
+    <t>ボヘミア</t>
+  </si>
+  <si>
+    <t>D101</t>
+  </si>
+  <si>
+    <t>エレガンス</t>
+  </si>
+  <si>
+    <t>EW221/A</t>
+  </si>
+  <si>
+    <t>EW222</t>
+  </si>
+  <si>
+    <t>パミール</t>
+  </si>
+  <si>
+    <t>H15</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>HK211/A</t>
+  </si>
+  <si>
+    <t>HK213/A</t>
+  </si>
+  <si>
+    <t>HK220/A</t>
+  </si>
+  <si>
+    <t>座カバー</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>ルイス</t>
+  </si>
+  <si>
+    <t>IS22</t>
+  </si>
+  <si>
+    <t>ヘンリー</t>
+  </si>
+  <si>
+    <t>IS27A</t>
+  </si>
+  <si>
+    <t>カーレン</t>
+  </si>
+  <si>
+    <t>KA270</t>
+  </si>
+  <si>
+    <t>KA271A</t>
+  </si>
+  <si>
+    <t>KA272A</t>
+  </si>
+  <si>
+    <t>KA273</t>
+  </si>
+  <si>
+    <t>furano</t>
+  </si>
+  <si>
+    <t>KB240/A</t>
+  </si>
+  <si>
+    <t>KK</t>
+  </si>
+  <si>
+    <t>KK237</t>
+  </si>
+  <si>
+    <t>WALES</t>
+  </si>
+  <si>
+    <t>LH290/A</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>LO260N/AN/U/AU</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>LO260Q</t>
+  </si>
+  <si>
+    <t>背</t>
+  </si>
+  <si>
+    <t>ルル</t>
+  </si>
+  <si>
+    <t>LU210/LU210A</t>
+  </si>
+  <si>
+    <t>LU211/LU211A</t>
+  </si>
+  <si>
+    <t>LU250A</t>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>9</t>
-  </si>
-  <si>
-    <t>#2005-A</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>8</t>
-  </si>
-  <si>
-    <t>#2007-O/A</t>
-  </si>
-  <si>
-    <t>#6020_01</t>
-  </si>
-  <si>
-    <t>総張り替え</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>6</t>
-  </si>
-  <si>
-    <t>黒部</t>
-  </si>
-  <si>
-    <t>#701</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>メルー</t>
-  </si>
-  <si>
-    <t>#702</t>
-  </si>
-  <si>
-    <t>鹿島</t>
-  </si>
-  <si>
-    <t>#703</t>
-  </si>
-  <si>
-    <t>#705</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>笠</t>
-  </si>
-  <si>
-    <t>#708/A</t>
-  </si>
-  <si>
-    <t>アイガー</t>
-  </si>
-  <si>
-    <t>#713</t>
-  </si>
-  <si>
-    <t>マナスル</t>
-  </si>
-  <si>
-    <t>#716</t>
-  </si>
-  <si>
-    <t>バルカン</t>
-  </si>
-  <si>
-    <t>#717</t>
-  </si>
-  <si>
-    <t>モンブラン</t>
-  </si>
-  <si>
-    <t>#725</t>
-  </si>
-  <si>
-    <t>のりくら</t>
-  </si>
-  <si>
-    <t>#727</t>
-  </si>
-  <si>
-    <t>ピレネー</t>
-  </si>
-  <si>
-    <t>#737</t>
-  </si>
-  <si>
-    <t>#741</t>
-  </si>
-  <si>
-    <t>セバン</t>
-  </si>
-  <si>
-    <t>#745/A</t>
-  </si>
-  <si>
-    <t>エルベ</t>
-  </si>
-  <si>
-    <t>#746</t>
-  </si>
-  <si>
-    <t>モーゼル</t>
-  </si>
-  <si>
-    <t>#747/A</t>
-  </si>
-  <si>
-    <t>レナ</t>
-  </si>
-  <si>
-    <t>#748/A</t>
-  </si>
-  <si>
-    <t>#749/A</t>
-  </si>
-  <si>
-    <t>シャスタ</t>
-  </si>
-  <si>
-    <t>#750A</t>
-  </si>
-  <si>
-    <t>#751</t>
-  </si>
-  <si>
-    <t>#753/A</t>
-  </si>
-  <si>
-    <t>#754/A</t>
-  </si>
-  <si>
-    <t>ロアール</t>
-  </si>
-  <si>
-    <t>#755/A</t>
-  </si>
-  <si>
-    <t>セーヌ</t>
-  </si>
-  <si>
-    <t>#756/A</t>
-  </si>
-  <si>
-    <t>ライン</t>
-  </si>
-  <si>
-    <t>#757/A</t>
-  </si>
-  <si>
-    <t>オークハウステムズ</t>
-  </si>
-  <si>
-    <t>#758A</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>アンデス</t>
-  </si>
-  <si>
-    <t>#760</t>
-  </si>
-  <si>
-    <t>#761</t>
-  </si>
-  <si>
-    <t>セーヌII</t>
-  </si>
-  <si>
-    <t>#762/A</t>
-  </si>
-  <si>
-    <t>ローガン</t>
-  </si>
-  <si>
-    <t>C60</t>
-  </si>
-  <si>
-    <t>ケープコット</t>
-  </si>
-  <si>
-    <t>CA204/A</t>
-  </si>
-  <si>
-    <t>ボヘミア</t>
-  </si>
-  <si>
-    <t>D101</t>
-  </si>
-  <si>
-    <t>エレガンス</t>
-  </si>
-  <si>
-    <t>EW221/A</t>
-  </si>
-  <si>
-    <t>EW222</t>
-  </si>
-  <si>
-    <t>パミール</t>
-  </si>
-  <si>
-    <t>H15</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>HK211/A</t>
-  </si>
-  <si>
-    <t>HK213/A</t>
-  </si>
-  <si>
-    <t>HK220/A</t>
-  </si>
-  <si>
-    <t>座カバー</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>ルイス</t>
-  </si>
-  <si>
-    <t>IS22</t>
-  </si>
-  <si>
-    <t>ヘンリー</t>
-  </si>
-  <si>
-    <t>IS27A</t>
-  </si>
-  <si>
-    <t>カーレン</t>
-  </si>
-  <si>
-    <t>KA270</t>
-  </si>
-  <si>
-    <t>KA271A</t>
-  </si>
-  <si>
-    <t>KA272A</t>
-  </si>
-  <si>
-    <t>KA273</t>
-  </si>
-  <si>
-    <t>furano</t>
-  </si>
-  <si>
-    <t>KB240/A</t>
-  </si>
-  <si>
-    <t>KK</t>
-  </si>
-  <si>
-    <t>KK237</t>
-  </si>
-  <si>
-    <t>WALES</t>
-  </si>
-  <si>
-    <t>LH290/A</t>
-  </si>
-  <si>
-    <t>select</t>
-  </si>
-  <si>
-    <t>LO260N/AN/U/AU</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>LO260Q</t>
-  </si>
-  <si>
-    <t>背</t>
-  </si>
-  <si>
-    <t>ルル</t>
-  </si>
-  <si>
-    <t>LU210/LU210A</t>
-  </si>
-  <si>
-    <t>LU211/LU211A</t>
-  </si>
-  <si>
-    <t>LU250A</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -436,11 +450,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -746,12 +764,13 @@
   <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -764,7 +783,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -778,8 +797,8 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
+      <c r="D2" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -792,8 +811,8 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
+      <c r="D3" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -806,8 +825,8 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
+      <c r="D4" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -820,8 +839,8 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
-        <v>13</v>
+      <c r="D5" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -829,13 +848,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
+      <c r="D6" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -843,13 +862,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
+      <c r="D7" s="3" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -857,489 +876,489 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" t="s">
-        <v>22</v>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
+      <c r="D10" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" t="s">
-        <v>28</v>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
+      <c r="D13" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
-      <c r="D14" t="s">
-        <v>28</v>
+      <c r="D14" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
-      <c r="D15" t="s">
-        <v>22</v>
+      <c r="D15" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
       </c>
-      <c r="D16" t="s">
-        <v>28</v>
+      <c r="D16" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
       </c>
-      <c r="D17" t="s">
-        <v>28</v>
+      <c r="D17" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
       </c>
-      <c r="D18" t="s">
-        <v>28</v>
+      <c r="D18" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
-      <c r="D19" t="s">
-        <v>22</v>
+      <c r="D19" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
       </c>
-      <c r="D20" t="s">
-        <v>22</v>
+      <c r="D20" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
       </c>
-      <c r="D21" t="s">
-        <v>28</v>
+      <c r="D21" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
+      <c r="D22" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
       </c>
-      <c r="D23" t="s">
-        <v>22</v>
+      <c r="D23" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
       </c>
-      <c r="D24" t="s">
-        <v>22</v>
+      <c r="D24" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
       <c r="C25" t="s">
         <v>6</v>
       </c>
-      <c r="D25" t="s">
-        <v>28</v>
+      <c r="D25" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
       </c>
-      <c r="D26" t="s">
-        <v>22</v>
+      <c r="D26" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
       </c>
-      <c r="D27" t="s">
-        <v>28</v>
+      <c r="D27" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
       </c>
-      <c r="D30" t="s">
-        <v>22</v>
+      <c r="D30" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
         <v>12</v>
       </c>
-      <c r="D32" t="s">
-        <v>22</v>
+      <c r="D32" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="B33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" t="s">
         <v>67</v>
       </c>
-      <c r="B35" t="s">
-        <v>69</v>
-      </c>
       <c r="C35" t="s">
         <v>6</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
         <v>12</v>
       </c>
-      <c r="D36" t="s">
-        <v>22</v>
+      <c r="D36" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
       </c>
-      <c r="D37" t="s">
-        <v>28</v>
+      <c r="D37" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
         <v>6</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
       </c>
-      <c r="D39" t="s">
-        <v>28</v>
+      <c r="D39" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" t="s">
         <v>78</v>
       </c>
-      <c r="B41" t="s">
-        <v>80</v>
-      </c>
       <c r="C41" t="s">
         <v>6</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="B42" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1347,12 +1366,12 @@
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1361,12 +1380,12 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1375,208 +1394,208 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" t="s">
         <v>86</v>
-      </c>
-      <c r="C45" t="s">
-        <v>87</v>
-      </c>
-      <c r="D45" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
       </c>
-      <c r="D46" t="s">
-        <v>28</v>
+      <c r="D46" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C47" t="s">
         <v>12</v>
       </c>
-      <c r="D47" t="s">
-        <v>19</v>
+      <c r="D47" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
       </c>
-      <c r="D48" t="s">
-        <v>22</v>
+      <c r="D48" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" t="s">
         <v>93</v>
       </c>
-      <c r="B49" t="s">
-        <v>95</v>
-      </c>
       <c r="C49" t="s">
         <v>12</v>
       </c>
-      <c r="D49" t="s">
-        <v>22</v>
+      <c r="D49" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B50" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
       </c>
-      <c r="D50" t="s">
-        <v>22</v>
+      <c r="D50" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C51" t="s">
         <v>12</v>
       </c>
-      <c r="D51" t="s">
-        <v>22</v>
+      <c r="D51" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C52" t="s">
         <v>6</v>
       </c>
-      <c r="D52" t="s">
-        <v>28</v>
+      <c r="D52" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
       </c>
-      <c r="D53" t="s">
-        <v>28</v>
+      <c r="D53" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B54" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" t="s">
         <v>104</v>
-      </c>
-      <c r="B55" t="s">
-        <v>105</v>
-      </c>
-      <c r="C55" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" t="s">
         <v>104</v>
-      </c>
-      <c r="B56" t="s">
-        <v>107</v>
-      </c>
-      <c r="C56" t="s">
-        <v>108</v>
-      </c>
-      <c r="D56" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B57" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58" t="s">
         <v>109</v>
       </c>
-      <c r="B58" t="s">
-        <v>111</v>
-      </c>
       <c r="C58" t="s">
         <v>12</v>
       </c>
-      <c r="D58" t="s">
-        <v>22</v>
+      <c r="D58" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B59" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C59" t="s">
         <v>6</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="3" t="s">
         <v>7</v>
       </c>
     </row>

--- a/repair_item1.xlsx
+++ b/repair_item1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SALES\work\git_space\repair_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7003FA6E-8AFB-4A3B-8C71-E7D95A648423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F9283C-094E-412A-9FE8-E20CAFA9EE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,9 +185,6 @@
     <t>#748/A</t>
   </si>
   <si>
-    <t>#749/A</t>
-  </si>
-  <si>
     <t>シャスタ</t>
   </si>
   <si>
@@ -385,6 +382,10 @@
   </si>
   <si>
     <t>6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#749/A</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -763,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -826,7 +827,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -840,7 +841,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -854,7 +855,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -868,7 +869,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -882,7 +883,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1114,7 +1115,7 @@
         <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
@@ -1125,10 +1126,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
         <v>51</v>
-      </c>
-      <c r="B26" t="s">
-        <v>52</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
@@ -1139,10 +1140,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -1153,10 +1154,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -1167,10 +1168,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
@@ -1181,10 +1182,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
         <v>56</v>
-      </c>
-      <c r="B30" t="s">
-        <v>57</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
@@ -1195,10 +1196,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" t="s">
         <v>58</v>
-      </c>
-      <c r="B31" t="s">
-        <v>59</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -1209,10 +1210,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s">
         <v>60</v>
-      </c>
-      <c r="B32" t="s">
-        <v>61</v>
       </c>
       <c r="C32" t="s">
         <v>12</v>
@@ -1223,24 +1224,24 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" t="s">
         <v>62</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="C33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
         <v>65</v>
-      </c>
-      <c r="B34" t="s">
-        <v>66</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -1251,10 +1252,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
@@ -1265,10 +1266,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" t="s">
         <v>68</v>
-      </c>
-      <c r="B36" t="s">
-        <v>69</v>
       </c>
       <c r="C36" t="s">
         <v>12</v>
@@ -1279,10 +1280,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" t="s">
         <v>70</v>
-      </c>
-      <c r="B37" t="s">
-        <v>71</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
@@ -1293,10 +1294,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" t="s">
         <v>72</v>
-      </c>
-      <c r="B38" t="s">
-        <v>73</v>
       </c>
       <c r="C38" t="s">
         <v>6</v>
@@ -1307,10 +1308,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" t="s">
         <v>74</v>
-      </c>
-      <c r="B39" t="s">
-        <v>75</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
@@ -1321,10 +1322,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" t="s">
         <v>76</v>
-      </c>
-      <c r="B40" t="s">
-        <v>77</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
@@ -1335,10 +1336,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
@@ -1349,16 +1350,16 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" t="s">
         <v>79</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="C42" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1366,7 +1367,7 @@
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
@@ -1380,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
@@ -1394,21 +1395,21 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" t="s">
         <v>84</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>85</v>
-      </c>
-      <c r="D45" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" t="s">
         <v>87</v>
-      </c>
-      <c r="B46" t="s">
-        <v>88</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
@@ -1419,10 +1420,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" t="s">
         <v>89</v>
-      </c>
-      <c r="B47" t="s">
-        <v>90</v>
       </c>
       <c r="C47" t="s">
         <v>12</v>
@@ -1433,10 +1434,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" t="s">
         <v>91</v>
-      </c>
-      <c r="B48" t="s">
-        <v>92</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
@@ -1447,10 +1448,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C49" t="s">
         <v>12</v>
@@ -1461,10 +1462,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
@@ -1475,10 +1476,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C51" t="s">
         <v>12</v>
@@ -1489,10 +1490,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" t="s">
         <v>96</v>
-      </c>
-      <c r="B52" t="s">
-        <v>97</v>
       </c>
       <c r="C52" t="s">
         <v>6</v>
@@ -1503,10 +1504,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" t="s">
         <v>98</v>
-      </c>
-      <c r="B53" t="s">
-        <v>99</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -1517,10 +1518,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" t="s">
         <v>100</v>
-      </c>
-      <c r="B54" t="s">
-        <v>101</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
@@ -1531,38 +1532,38 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" t="s">
         <v>102</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" t="s">
         <v>103</v>
-      </c>
-      <c r="C55" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" t="s">
         <v>105</v>
       </c>
-      <c r="C56" t="s">
-        <v>106</v>
-      </c>
       <c r="D56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57" t="s">
         <v>107</v>
-      </c>
-      <c r="B57" t="s">
-        <v>108</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
@@ -1573,10 +1574,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C58" t="s">
         <v>12</v>
@@ -1587,10 +1588,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B59" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C59" t="s">
         <v>6</v>
